--- a/ig/anomalies/StructureDefinition-ror-organization-price.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization-price.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3105" uniqueCount="230">
   <si>
     <t>Property</t>
   </si>
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://esante.gouv.fr/ci-sis/fhir/ImplementationGuide/ROR/StructureDefinition/ror-organization-price</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/ror/StructureDefinition/ror-organization-price</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29</t>
+    <t>2023-04-11T09:40:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Extension créée dans le cadre du ROR</t>
+    <t>Extension créée dans le cadre du ROR pour permettre de définir les tarifs des prestations et services d'une entité géographique.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -362,10 +362,11 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J36-TypeTarif-ROR/FHIR/JDV-J36-TypeTarif-ROR</t>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -375,6 +376,18 @@
 </t>
   </si>
   <si>
+    <t>Extension.extension:priceType.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J36-TypeTarif-ROR/FHIR/JDV-J36-TypeTarif-ROR</t>
+  </si>
+  <si>
     <t>Extension.extension:priceUnit</t>
   </si>
   <si>
@@ -391,6 +404,9 @@
   </si>
   <si>
     <t>Extension.extension:priceUnit.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:priceUnit.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J205-UnitePrix-ROR/FHIR/JDV-J205-UnitePrix-ROR</t>
@@ -480,6 +496,9 @@
     <t>Extension.extension:deliveryIncluded.value[x]</t>
   </si>
   <si>
+    <t>Extension.extension:deliveryIncluded.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J206-PrestationNonObligatoireIncluse-ROR/FHIR/JDV-J206-PrestationNonObligatoireIncluse-ROR</t>
   </si>
   <si>
@@ -519,6 +538,9 @@
     <t>Extension.extension:residentialType.value[x]</t>
   </si>
   <si>
+    <t>Extension.extension:residentialType.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J32-TypeHabitation-ROR/FHIR/JDV-J32-TypeHabitation-ROR</t>
   </si>
   <si>
@@ -540,6 +562,9 @@
     <t>Extension.extension:specialPrice.value[x]</t>
   </si>
   <si>
+    <t>Extension.extension:specialPrice.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J39-ConditionTarifaire-ROR/FHIR/JDV-J39-ConditionTarifaire-ROR</t>
   </si>
   <si>
@@ -561,6 +586,9 @@
     <t>Extension.extension:welcomeType.value[x]</t>
   </si>
   <si>
+    <t>Extension.extension:welcomeType.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J30-TemporaliteAccueil-ROR/FHIR/JDV-J30-TemporaliteAccueil-ROR</t>
   </si>
   <si>
@@ -600,6 +628,9 @@
     <t>Extension.extension:dependencyLevel.value[x]</t>
   </si>
   <si>
+    <t>Extension.extension:dependencyLevel.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J27-GroupeTarifaireDependance-ROR/FHIR/JDV-J27-GroupeTarifaireDependance-ROR</t>
   </si>
   <si>
@@ -639,73 +670,49 @@
     <t>Extension.extension:managementType.value[x]</t>
   </si>
   <si>
+    <t>Extension.extension:managementType.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J26-ModeGestion-ROR/FHIR/JDV-J26-ModeGestion-ROR</t>
   </si>
   <si>
-    <t>Extension.extension:surchargePriceName</t>
-  </si>
-  <si>
-    <t>surchargePriceName</t>
-  </si>
-  <si>
-    <t>Extension.extension:surchargePriceName.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:surchargePriceName.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:surchargePriceName.extension:string</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>Extension.extension:surchargePriceName.extension:string.id</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:surchargePriceName.extension:string.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:surchargePriceName.extension:string.url</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:surchargePriceName.extension:string.value[x]</t>
-  </si>
-  <si>
-    <t>Extension.extension.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Extension.extension:surchargePriceName.extension:codeableConcept</t>
-  </si>
-  <si>
-    <t>codeableConcept</t>
-  </si>
-  <si>
-    <t>Extension.extension:surchargePriceName.extension:codeableConcept.id</t>
-  </si>
-  <si>
-    <t>Extension.extension:surchargePriceName.extension:codeableConcept.extension</t>
-  </si>
-  <si>
-    <t>Extension.extension:surchargePriceName.extension:codeableConcept.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:surchargePriceName.extension:codeableConcept.value[x]</t>
-  </si>
-  <si>
-    <t>Extension.extension:surchargePriceName.url</t>
-  </si>
-  <si>
-    <t>Extension.extension:surchargePriceName.value[x]</t>
+    <t>Extension.extension:otherAdditionalServiceName</t>
+  </si>
+  <si>
+    <t>otherAdditionalServiceName</t>
+  </si>
+  <si>
+    <t>Extension.extension:otherAdditionalServiceName.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:otherAdditionalServiceName.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:otherAdditionalServiceName.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:otherAdditionalServiceName.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:additionalServiceName</t>
+  </si>
+  <si>
+    <t>additionalServiceName</t>
+  </si>
+  <si>
+    <t>Extension.extension:additionalServiceName.id</t>
+  </si>
+  <si>
+    <t>Extension.extension:additionalServiceName.extension</t>
+  </si>
+  <si>
+    <t>Extension.extension:additionalServiceName.url</t>
+  </si>
+  <si>
+    <t>Extension.extension:additionalServiceName.value[x]</t>
+  </si>
+  <si>
+    <t>Extension.extension:additionalServiceName.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>base64Binary
@@ -1012,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK91"/>
+  <dimension ref="A1:AK95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1021,9 +1028,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="74.98828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="38.703125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.33203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="71.43359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.1484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="27.34765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1958,26 +1965,26 @@
         <v>73</v>
       </c>
       <c r="X9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB9" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="Y9" s="2"/>
-      <c r="Z9" t="s" s="2">
+      <c r="AC9" s="2"/>
+      <c r="AD9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="AA9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD9" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>115</v>
@@ -2003,7 +2010,7 @@
         <v>117</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>118</v>
@@ -2013,7 +2020,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>79</v>
@@ -2028,13 +2035,13 @@
         <v>73</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -2061,13 +2068,11 @@
         <v>73</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y10" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y10" s="2"/>
       <c r="Z10" t="s" s="2">
-        <v>73</v>
+        <v>120</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>73</v>
@@ -2085,38 +2090,40 @@
         <v>73</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>122</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>79</v>
@@ -2131,13 +2138,13 @@
         <v>73</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -2188,30 +2195,30 @@
         <v>73</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2222,7 +2229,7 @@
         <v>74</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>73</v>
@@ -2234,13 +2241,13 @@
         <v>73</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2279,42 +2286,42 @@
         <v>73</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AD12" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2322,10 +2329,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>73</v>
@@ -2337,24 +2344,22 @@
         <v>73</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>73</v>
@@ -2384,42 +2389,42 @@
         <v>73</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2427,7 +2432,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>79</v>
@@ -2442,22 +2447,24 @@
         <v>73</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="S14" t="s" s="2">
         <v>73</v>
@@ -2475,11 +2482,13 @@
         <v>73</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>73</v>
@@ -2497,19 +2506,19 @@
         <v>73</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>107</v>
@@ -2517,20 +2526,18 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>125</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>79</v>
@@ -2545,13 +2552,13 @@
         <v>73</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2590,44 +2597,44 @@
         <v>73</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C16" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="D16" t="s" s="2">
         <v>73</v>
       </c>
@@ -2648,13 +2655,13 @@
         <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2681,13 +2688,11 @@
         <v>73</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>73</v>
+        <v>128</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>73</v>
@@ -2705,7 +2710,7 @@
         <v>73</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>74</v>
@@ -2714,32 +2719,34 @@
         <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="D17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>73</v>
@@ -2796,16 +2803,16 @@
         <v>73</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>92</v>
@@ -2828,10 +2835,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2839,7 +2846,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>79</v>
@@ -2854,24 +2861,22 @@
         <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>125</v>
+        <v>73</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>73</v>
@@ -2913,10 +2918,10 @@
         <v>73</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>79</v>
@@ -2928,15 +2933,15 @@
         <v>73</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2947,7 +2952,7 @@
         <v>74</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>73</v>
@@ -2959,13 +2964,13 @@
         <v>73</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>130</v>
+        <v>87</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3004,52 +3009,50 @@
         <v>73</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C20" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>79</v>
@@ -3064,22 +3067,24 @@
         <v>73</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N20" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>73</v>
@@ -3121,30 +3126,30 @@
         <v>73</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3167,13 +3172,13 @@
         <v>73</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3224,7 +3229,7 @@
         <v>73</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>74</v>
@@ -3233,23 +3238,25 @@
         <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>73</v>
       </c>
@@ -3258,7 +3265,7 @@
         <v>74</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>73</v>
@@ -3315,16 +3322,16 @@
         <v>73</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>92</v>
@@ -3347,10 +3354,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3358,7 +3365,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>79</v>
@@ -3373,24 +3380,22 @@
         <v>73</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>132</v>
+        <v>73</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>73</v>
@@ -3432,10 +3437,10 @@
         <v>73</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>79</v>
@@ -3447,15 +3452,15 @@
         <v>73</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3466,7 +3471,7 @@
         <v>74</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>73</v>
@@ -3478,13 +3483,13 @@
         <v>73</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3523,46 +3528,44 @@
         <v>73</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C25" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
         <v>73</v>
       </c>
@@ -3583,22 +3586,24 @@
         <v>73</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>73</v>
@@ -3640,30 +3645,30 @@
         <v>73</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3686,13 +3691,13 @@
         <v>73</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3743,7 +3748,7 @@
         <v>73</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>74</v>
@@ -3752,32 +3757,34 @@
         <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="D27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>73</v>
@@ -3834,16 +3841,16 @@
         <v>73</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AD27" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>92</v>
@@ -3866,10 +3873,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3877,7 +3884,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>79</v>
@@ -3892,24 +3899,22 @@
         <v>73</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>139</v>
+        <v>73</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>73</v>
@@ -3951,10 +3956,10 @@
         <v>73</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>79</v>
@@ -3966,15 +3971,15 @@
         <v>73</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3985,7 +3990,7 @@
         <v>74</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>73</v>
@@ -3997,13 +4002,13 @@
         <v>73</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4042,55 +4047,53 @@
         <v>73</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>73</v>
@@ -4102,22 +4105,24 @@
         <v>73</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>73</v>
+        <v>144</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>73</v>
@@ -4159,30 +4164,30 @@
         <v>73</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4205,13 +4210,13 @@
         <v>73</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>80</v>
+        <v>149</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4262,7 +4267,7 @@
         <v>73</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>74</v>
@@ -4271,23 +4276,25 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>73</v>
       </c>
@@ -4296,7 +4303,7 @@
         <v>74</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>73</v>
@@ -4353,16 +4360,16 @@
         <v>73</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>92</v>
@@ -4385,10 +4392,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4396,7 +4403,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>79</v>
@@ -4411,24 +4418,22 @@
         <v>73</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>146</v>
+        <v>73</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>73</v>
@@ -4470,10 +4475,10 @@
         <v>73</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>79</v>
@@ -4485,15 +4490,15 @@
         <v>73</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4504,7 +4509,7 @@
         <v>74</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>73</v>
@@ -4516,13 +4521,13 @@
         <v>73</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4549,65 +4554,65 @@
         <v>73</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y34" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z34" t="s" s="2">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD34" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C35" t="s" s="2">
-        <v>153</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>73</v>
@@ -4619,22 +4624,24 @@
         <v>73</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>73</v>
+        <v>151</v>
       </c>
       <c r="S35" t="s" s="2">
         <v>73</v>
@@ -4676,30 +4683,30 @@
         <v>73</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4722,13 +4729,13 @@
         <v>73</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -4767,19 +4774,17 @@
         <v>73</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>74</v>
@@ -4788,23 +4793,25 @@
         <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>73</v>
       </c>
@@ -4813,7 +4820,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>73</v>
@@ -4825,13 +4832,13 @@
         <v>73</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -4858,65 +4865,65 @@
         <v>73</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>73</v>
@@ -4928,24 +4935,22 @@
         <v>73</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>73</v>
@@ -4987,30 +4992,30 @@
         <v>73</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5036,10 +5041,10 @@
         <v>80</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5090,7 +5095,7 @@
         <v>73</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>74</v>
@@ -5099,34 +5104,32 @@
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C40" t="s" s="2">
-        <v>159</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>73</v>
@@ -5183,16 +5186,16 @@
         <v>73</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>92</v>
@@ -5215,10 +5218,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5226,7 +5229,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>79</v>
@@ -5241,22 +5244,24 @@
         <v>73</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>73</v>
@@ -5298,10 +5303,10 @@
         <v>73</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>79</v>
@@ -5313,15 +5318,15 @@
         <v>73</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5332,7 +5337,7 @@
         <v>74</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>73</v>
@@ -5344,13 +5349,13 @@
         <v>73</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5389,44 +5394,46 @@
         <v>73</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>73</v>
       </c>
@@ -5447,24 +5454,22 @@
         <v>73</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>73</v>
@@ -5506,30 +5511,30 @@
         <v>73</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5552,13 +5557,13 @@
         <v>73</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -5585,11 +5590,13 @@
         <v>73</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>164</v>
+        <v>73</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>73</v>
@@ -5607,7 +5614,7 @@
         <v>73</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>74</v>
@@ -5616,25 +5623,23 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
         <v>73</v>
       </c>
@@ -5643,7 +5648,7 @@
         <v>74</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>73</v>
@@ -5700,16 +5705,16 @@
         <v>73</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>92</v>
@@ -5732,10 +5737,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5743,7 +5748,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>79</v>
@@ -5758,22 +5763,24 @@
         <v>73</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>73</v>
+        <v>165</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>73</v>
@@ -5815,10 +5822,10 @@
         <v>73</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>79</v>
@@ -5830,15 +5837,15 @@
         <v>73</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -5849,7 +5856,7 @@
         <v>74</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>73</v>
@@ -5861,13 +5868,13 @@
         <v>73</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -5906,50 +5913,50 @@
         <v>73</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>90</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AC47" s="2"/>
       <c r="AD47" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="D48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>79</v>
@@ -5964,24 +5971,22 @@
         <v>73</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>166</v>
+        <v>73</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>73</v>
@@ -5999,13 +6004,11 @@
         <v>73</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y48" s="2"/>
       <c r="Z48" t="s" s="2">
-        <v>73</v>
+        <v>171</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>73</v>
@@ -6023,19 +6026,19 @@
         <v>73</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>107</v>
@@ -6043,12 +6046,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>73</v>
       </c>
@@ -6069,13 +6074,13 @@
         <v>73</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6102,11 +6107,13 @@
         <v>73</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z49" t="s" s="2">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>73</v>
@@ -6124,40 +6131,38 @@
         <v>73</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C50" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>79</v>
@@ -6172,13 +6177,13 @@
         <v>73</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6229,30 +6234,30 @@
         <v>73</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6263,7 +6268,7 @@
         <v>74</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>73</v>
@@ -6275,13 +6280,13 @@
         <v>73</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -6320,42 +6325,42 @@
         <v>73</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6363,10 +6368,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>73</v>
@@ -6378,22 +6383,24 @@
         <v>73</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" t="s" s="2">
-        <v>73</v>
+        <v>173</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>73</v>
@@ -6423,42 +6430,42 @@
         <v>73</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AD52" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6466,7 +6473,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>79</v>
@@ -6481,24 +6488,22 @@
         <v>73</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>73</v>
@@ -6528,31 +6533,29 @@
         <v>73</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AC53" s="2"/>
       <c r="AD53" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>107</v>
@@ -6560,12 +6563,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="D54" t="s" s="2">
         <v>73</v>
       </c>
@@ -6619,11 +6624,11 @@
         <v>73</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="Y54" s="2"/>
       <c r="Z54" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>73</v>
@@ -6661,20 +6666,20 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>85</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>79</v>
@@ -6766,7 +6771,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>97</v>
@@ -6869,7 +6874,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>99</v>
@@ -6972,7 +6977,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>101</v>
@@ -7015,7 +7020,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>73</v>
@@ -7077,7 +7082,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>109</v>
@@ -7103,7 +7108,7 @@
         <v>73</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>111</v>
@@ -7148,16 +7153,14 @@
         <v>73</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC59" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AC59" s="2"/>
       <c r="AD59" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>115</v>
@@ -7180,20 +7183,20 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>186</v>
+        <v>118</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -7208,13 +7211,13 @@
         <v>73</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -7241,13 +7244,11 @@
         <v>73</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>73</v>
@@ -7265,32 +7266,34 @@
         <v>73</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="D61" t="s" s="2">
         <v>73</v>
       </c>
@@ -7311,13 +7314,13 @@
         <v>73</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -7368,30 +7371,30 @@
         <v>73</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7402,7 +7405,7 @@
         <v>74</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>73</v>
@@ -7414,13 +7417,13 @@
         <v>73</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -7459,42 +7462,42 @@
         <v>73</v>
       </c>
       <c r="AB62" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AC62" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AD62" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -7502,10 +7505,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>73</v>
@@ -7517,24 +7520,22 @@
         <v>73</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>186</v>
+        <v>73</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>73</v>
@@ -7564,42 +7565,42 @@
         <v>73</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7607,7 +7608,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>79</v>
@@ -7622,22 +7623,24 @@
         <v>73</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>73</v>
+        <v>189</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>73</v>
@@ -7655,11 +7658,13 @@
         <v>73</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y64" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z64" t="s" s="2">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>73</v>
@@ -7677,19 +7682,19 @@
         <v>73</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>107</v>
@@ -7697,14 +7702,12 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C65" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
         <v>73</v>
       </c>
@@ -7725,13 +7728,13 @@
         <v>73</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -7782,22 +7785,22 @@
         <v>73</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66">
@@ -7805,15 +7808,17 @@
         <v>194</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C66" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="D66" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>79</v>
@@ -7828,13 +7833,13 @@
         <v>73</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -7885,30 +7890,30 @@
         <v>73</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -7919,7 +7924,7 @@
         <v>74</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>73</v>
@@ -7931,13 +7936,13 @@
         <v>73</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -7976,42 +7981,42 @@
         <v>73</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8019,10 +8024,10 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>73</v>
@@ -8034,24 +8039,22 @@
         <v>73</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>193</v>
+        <v>73</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>73</v>
@@ -8081,42 +8084,42 @@
         <v>73</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AC68" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD68" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8124,7 +8127,7 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>79</v>
@@ -8139,22 +8142,24 @@
         <v>73</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>73</v>
+        <v>195</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>73</v>
@@ -8196,19 +8201,19 @@
         <v>73</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>107</v>
@@ -8216,20 +8221,18 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C70" t="s" s="2">
-        <v>199</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>79</v>
@@ -8244,13 +8247,13 @@
         <v>73</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -8289,34 +8292,32 @@
         <v>73</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AC70" s="2"/>
       <c r="AD70" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71">
@@ -8324,9 +8325,11 @@
         <v>200</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="D71" t="s" s="2">
         <v>73</v>
       </c>
@@ -8347,13 +8350,13 @@
         <v>73</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -8380,13 +8383,11 @@
         <v>73</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y71" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y71" s="2"/>
       <c r="Z71" t="s" s="2">
-        <v>73</v>
+        <v>201</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>73</v>
@@ -8404,7 +8405,7 @@
         <v>73</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>74</v>
@@ -8413,23 +8414,25 @@
         <v>79</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="C72" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="D72" t="s" s="2">
         <v>73</v>
       </c>
@@ -8438,7 +8441,7 @@
         <v>74</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>73</v>
@@ -8495,16 +8498,16 @@
         <v>73</v>
       </c>
       <c r="AB72" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AC72" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AD72" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>92</v>
@@ -8527,10 +8530,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -8538,7 +8541,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>79</v>
@@ -8553,24 +8556,22 @@
         <v>73</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>199</v>
+        <v>73</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>73</v>
@@ -8612,10 +8613,10 @@
         <v>73</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>79</v>
@@ -8627,15 +8628,15 @@
         <v>73</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -8646,7 +8647,7 @@
         <v>74</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>73</v>
@@ -8658,13 +8659,13 @@
         <v>73</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -8691,56 +8692,56 @@
         <v>73</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y74" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z74" t="s" s="2">
-        <v>204</v>
+        <v>73</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
         <v>73</v>
       </c>
@@ -8761,22 +8762,24 @@
         <v>73</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" t="s" s="2">
-        <v>73</v>
+        <v>203</v>
       </c>
       <c r="S75" t="s" s="2">
         <v>73</v>
@@ -8818,22 +8821,22 @@
         <v>73</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76">
@@ -8841,7 +8844,7 @@
         <v>207</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -8867,10 +8870,10 @@
         <v>80</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -8921,7 +8924,7 @@
         <v>73</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>74</v>
@@ -8930,13 +8933,13 @@
         <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>84</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77">
@@ -8944,9 +8947,11 @@
         <v>208</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="D77" t="s" s="2">
         <v>73</v>
       </c>
@@ -8955,7 +8960,7 @@
         <v>79</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>73</v>
@@ -9012,16 +9017,16 @@
         <v>73</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>92</v>
@@ -9044,20 +9049,18 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>79</v>
@@ -9072,13 +9075,13 @@
         <v>73</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -9129,22 +9132,22 @@
         <v>73</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79">
@@ -9152,7 +9155,7 @@
         <v>211</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>212</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9163,7 +9166,7 @@
         <v>74</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>73</v>
@@ -9175,13 +9178,13 @@
         <v>73</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -9220,42 +9223,42 @@
         <v>73</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>214</v>
+        <v>101</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9263,10 +9266,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>73</v>
@@ -9278,22 +9281,24 @@
         <v>73</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>27</v>
+        <v>103</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q80" s="2"/>
       <c r="R80" t="s" s="2">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="S80" t="s" s="2">
         <v>73</v>
@@ -9323,42 +9328,42 @@
         <v>73</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>216</v>
+        <v>109</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -9366,7 +9371,7 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>79</v>
@@ -9381,24 +9386,22 @@
         <v>73</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>210</v>
+        <v>73</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>73</v>
@@ -9428,31 +9431,29 @@
         <v>73</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="AC81" s="2"/>
       <c r="AD81" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>107</v>
@@ -9460,12 +9461,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>118</v>
+      </c>
       <c r="D82" t="s" s="2">
         <v>73</v>
       </c>
@@ -9486,7 +9489,7 @@
         <v>73</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>111</v>
@@ -9519,13 +9522,11 @@
         <v>73</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>73</v>
@@ -9563,20 +9564,20 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>79</v>
@@ -9668,10 +9669,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>212</v>
+        <v>97</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -9771,10 +9772,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>214</v>
+        <v>99</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -9874,10 +9875,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>216</v>
+        <v>101</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -9917,7 +9918,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>73</v>
@@ -9979,10 +9980,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>218</v>
+        <v>109</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10005,7 +10006,7 @@
         <v>73</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="L87" t="s" s="2">
         <v>111</v>
@@ -10038,11 +10039,13 @@
         <v>73</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="Y87" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="Z87" t="s" s="2">
-        <v>151</v>
+        <v>73</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>73</v>
@@ -10080,18 +10083,20 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="D88" t="s" s="2">
         <v>73</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>79</v>
@@ -10106,24 +10111,22 @@
         <v>73</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>206</v>
+        <v>73</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>73</v>
@@ -10165,30 +10168,30 @@
         <v>73</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10199,7 +10202,7 @@
         <v>74</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>73</v>
@@ -10211,13 +10214,13 @@
         <v>73</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -10268,7 +10271,7 @@
         <v>73</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>74</v>
@@ -10277,21 +10280,21 @@
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -10299,10 +10302,10 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>73</v>
@@ -10314,24 +10317,22 @@
         <v>73</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q90" s="2"/>
       <c r="R90" t="s" s="2">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="S90" t="s" s="2">
         <v>73</v>
@@ -10361,42 +10362,42 @@
         <v>73</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="AC90" t="s" s="2">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="AD90" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>107</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -10404,10 +10405,10 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>73</v>
@@ -10419,22 +10420,24 @@
         <v>73</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>227</v>
+        <v>102</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>73</v>
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>73</v>
+        <v>223</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>73</v>
@@ -10476,21 +10479,433 @@
         <v>73</v>
       </c>
       <c r="AF91" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AC92" s="2"/>
+      <c r="AD92" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF92" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AG91" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AH91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI91" t="s" s="2">
+      <c r="AG92" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI92" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AJ91" t="s" s="2">
+      <c r="AJ92" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AK91" t="s" s="2">
+      <c r="AK92" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="Y93" s="2"/>
+      <c r="Z93" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="AK95" t="s" s="2">
         <v>107</v>
       </c>
     </row>

--- a/ig/anomalies/StructureDefinition-ror-organization-price.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-11T09:40:11+00:00</t>
+    <t>2023-04-12T13:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-organization-price.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T13:10:15+00:00</t>
+    <t>2023-04-12T14:18:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-organization-price.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:18:07+00:00</t>
+    <t>2023-04-12T14:39:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/anomalies/StructureDefinition-ror-organization-price.xlsx
+++ b/ig/anomalies/StructureDefinition-ror-organization-price.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-12T14:39:26+00:00</t>
+    <t>2023-04-12T15:25:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
